--- a/Materials/Material.xlsx
+++ b/Materials/Material.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fakiko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\OPEN-UMA-Rover\Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36897E87-D59C-423A-B04A-3C49FB364BBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>LM18200T</t>
   </si>
@@ -112,12 +111,18 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/13750</t>
+  </si>
+  <si>
+    <t>Raspberry PI 3 B+</t>
+  </si>
+  <si>
+    <t>https://es.farnell.com/raspberry-pi/rpi3-modbp/ordenador-monoplaca-raspberry/dp/2842228</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,8 +179,36 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,23 +482,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="90.5546875" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="90.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -482,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -494,7 +527,7 @@
         <v>247.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +543,7 @@
         <v>69.44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -522,7 +555,7 @@
         <v>16.95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -534,7 +567,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -546,7 +579,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -558,7 +591,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -570,7 +603,7 @@
         <v>48.99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -584,7 +617,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -598,7 +631,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -613,7 +646,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -628,7 +661,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,7 +676,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -658,7 +691,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -672,7 +705,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -687,7 +720,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -702,7 +735,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -717,7 +750,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -732,7 +765,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -748,25 +781,44 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2842228</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>32.46</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>5</v>
       </c>
-      <c r="E21">
-        <f>SUM(E2:E20)</f>
-        <v>482.7</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N35" t="s">
+      <c r="E22">
+        <f>SUM(E2:E21)</f>
+        <v>515.16</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{7FA98D88-E6A2-403A-95A6-186A08F567AD}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{A64A3B5C-81F6-4F00-9CF6-EB71341D2536}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Materials/Material.xlsx
+++ b/Materials/Material.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\OPEN-UMA-Rover\Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura.mantoani\Documents\GitHub\OPEN-UMA-Rover\Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9282D3-CE2C-45DA-B4A9-739F49ED2DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>LM18200T</t>
   </si>
@@ -44,9 +47,6 @@
     <t>Arduino Mega 2560</t>
   </si>
   <si>
-    <t>SparkFun GPS Logger Shield</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -110,19 +110,28 @@
     <t>https://www.robotshop.com/es/es/codificador-motor-cuadratura-v2-lynxmotion-con-cable.html</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/13750</t>
-  </si>
-  <si>
     <t>Raspberry PI 3 B+</t>
   </si>
   <si>
     <t>https://es.farnell.com/raspberry-pi/rpi3-modbp/ordenador-monoplaca-raspberry/dp/2842228</t>
+  </si>
+  <si>
+    <t>https://emlid.com/reach/</t>
+  </si>
+  <si>
+    <t>GPS Reach M+</t>
+  </si>
+  <si>
+    <t>Regulador Step-Down 5V/3.2A (D36V28F5)</t>
+  </si>
+  <si>
+    <t>https://tienda.bricogeek.com/convertidores-de-voltaje/1335-regulador-step-down-5v32a-d36v28f5.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,15 +155,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -162,18 +183,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -204,7 +368,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -482,48 +646,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="90.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="3">
         <v>247.64</v>
       </c>
     </row>
@@ -531,14 +697,14 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3">
         <f>34.72*2</f>
         <v>69.44</v>
       </c>
@@ -547,116 +713,125 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="E4">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="3">
         <v>16.95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="3">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="3">
         <v>1.06</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="3">
         <v>48.99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
         <v>2112910</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="12"/>
+      <c r="E9" s="3">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
         <v>1219481</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="12"/>
+      <c r="E10" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
         <v>4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="9">
         <v>1141772</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="12"/>
+      <c r="E11" s="3">
         <f>0.19*4</f>
         <v>0.76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>1902259</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="12"/>
+      <c r="E12" s="3">
         <f>0.39*2</f>
         <v>0.78</v>
       </c>
@@ -665,13 +840,14 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <v>1468979</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="12"/>
+      <c r="E13" s="3">
         <f>15.58*2</f>
         <v>31.16</v>
       </c>
@@ -680,145 +856,168 @@
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="9">
         <v>1329623</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="12"/>
+      <c r="E14" s="3">
         <f>4.09*2</f>
         <v>8.18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
         <v>1593441</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="12"/>
+      <c r="E15" s="3">
         <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="9">
         <v>2493622</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="12"/>
+      <c r="E16" s="3">
         <f>0.3*2</f>
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="9">
         <v>2490940</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="12"/>
+      <c r="E17" s="3">
         <f>1.9*2</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="9">
         <v>1593416</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="12"/>
+      <c r="E18" s="3">
         <f>0.33*4</f>
         <v>1.32</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
         <v>1593417</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="12"/>
+      <c r="E19" s="3">
         <v>0.4</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>49.95</v>
+        <v>28</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="3">
+        <v>227.78</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
         <v>2842228</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3">
         <v>32.46</v>
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <f>SUM(E2:E21)</f>
-        <v>515.16</v>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16">
+        <f>SUM(E2:E22)</f>
+        <v>703.94</v>
       </c>
     </row>
     <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D20" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{DCE7F1C9-A9DB-4199-BC11-D0A3830B5DB9}"/>
+    <hyperlink ref="D21" r:id="rId3" xr:uid="{C70A088A-6189-4EB1-9B00-6455636D686F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>